--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>73.15142415085633</v>
+        <v>47.58926081511789</v>
       </c>
       <c r="R2">
-        <v>658.3628173577069</v>
+        <v>428.303347336061</v>
       </c>
       <c r="S2">
-        <v>0.002502503370772032</v>
+        <v>0.001901917286124999</v>
       </c>
       <c r="T2">
-        <v>0.002502503370772032</v>
+        <v>0.001901917286124999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>83.89565777121223</v>
+        <v>79.37269404246555</v>
       </c>
       <c r="R3">
-        <v>755.06091994091</v>
+        <v>714.3542463821899</v>
       </c>
       <c r="S3">
-        <v>0.00287006259690349</v>
+        <v>0.003172150528501585</v>
       </c>
       <c r="T3">
-        <v>0.00287006259690349</v>
+        <v>0.003172150528501584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>9.320114927659555</v>
+        <v>8.594171631011889</v>
       </c>
       <c r="R4">
-        <v>83.88103434893598</v>
+        <v>77.347544679107</v>
       </c>
       <c r="S4">
-        <v>0.0003188402589996292</v>
+        <v>0.0003434683225790739</v>
       </c>
       <c r="T4">
-        <v>0.0003188402589996292</v>
+        <v>0.0003434683225790738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>5.633541137052888</v>
+        <v>1.746464125230222</v>
       </c>
       <c r="R5">
-        <v>50.70187023347599</v>
+        <v>15.718177127072</v>
       </c>
       <c r="S5">
-        <v>0.0001927229148100286</v>
+        <v>6.979789667834762E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001927229148100286</v>
+        <v>6.979789667834759E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>11946.8401942585</v>
+        <v>8215.00042277668</v>
       </c>
       <c r="R6">
-        <v>107521.5617483265</v>
+        <v>73935.00380499012</v>
       </c>
       <c r="S6">
-        <v>0.4087002844203233</v>
+        <v>0.3283146458252977</v>
       </c>
       <c r="T6">
-        <v>0.4087002844203234</v>
+        <v>0.3283146458252976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
         <v>13701.55165151546</v>
@@ -883,10 +883,10 @@
         <v>123313.9648636392</v>
       </c>
       <c r="S7">
-        <v>0.4687287990731915</v>
+        <v>0.5475861042261334</v>
       </c>
       <c r="T7">
-        <v>0.4687287990731915</v>
+        <v>0.5475861042261333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>1522.129267138381</v>
+        <v>1483.551590693122</v>
       </c>
       <c r="R8">
-        <v>13699.16340424543</v>
+        <v>13351.9643162381</v>
       </c>
       <c r="S8">
-        <v>0.05207189970641153</v>
+        <v>0.05929052830131671</v>
       </c>
       <c r="T8">
-        <v>0.05207189970641154</v>
+        <v>0.0592905283013167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>920.0506548356013</v>
+        <v>301.4798566186773</v>
       </c>
       <c r="R9">
-        <v>8280.455893520411</v>
+        <v>2713.318709568096</v>
       </c>
       <c r="S9">
-        <v>0.03147484675430142</v>
+        <v>0.01204872151616605</v>
       </c>
       <c r="T9">
-        <v>0.03147484675430143</v>
+        <v>0.01204872151616605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>404.2289385347873</v>
+        <v>404.4083268125761</v>
       </c>
       <c r="R10">
-        <v>3638.060446813086</v>
+        <v>3639.674941313185</v>
       </c>
       <c r="S10">
-        <v>0.01382863413787773</v>
+        <v>0.01616228481475777</v>
       </c>
       <c r="T10">
-        <v>0.01382863413787773</v>
+        <v>0.01616228481475776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>463.6007170359089</v>
+        <v>674.5004617117944</v>
       </c>
       <c r="R11">
-        <v>4172.40645332318</v>
+        <v>6070.50415540615</v>
       </c>
       <c r="S11">
-        <v>0.01585973712120971</v>
+        <v>0.02695658780271343</v>
       </c>
       <c r="T11">
-        <v>0.01585973712120971</v>
+        <v>0.02695658780271342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>51.50221213001421</v>
+        <v>73.03232935556612</v>
       </c>
       <c r="R12">
-        <v>463.519909170128</v>
+        <v>657.290964200095</v>
       </c>
       <c r="S12">
-        <v>0.001761885854631964</v>
+        <v>0.002918756191380052</v>
       </c>
       <c r="T12">
-        <v>0.001761885854631964</v>
+        <v>0.002918756191380051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>31.13049924122755</v>
+        <v>14.84126087745778</v>
       </c>
       <c r="R13">
-        <v>280.174493171048</v>
+        <v>133.57134789712</v>
       </c>
       <c r="S13">
-        <v>0.001064971464182713</v>
+        <v>0.0005931348822665613</v>
       </c>
       <c r="T13">
-        <v>0.001064971464182713</v>
+        <v>0.0005931348822665611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>7.767659479094666</v>
+        <v>5.566940308786</v>
       </c>
       <c r="R14">
-        <v>69.90893531185199</v>
+        <v>50.102462779074</v>
       </c>
       <c r="S14">
-        <v>0.0002657309034661654</v>
+        <v>0.0002224842290625082</v>
       </c>
       <c r="T14">
-        <v>0.0002657309034661654</v>
+        <v>0.0002224842290625082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>8.908547016084444</v>
+        <v>9.284931984939998</v>
       </c>
       <c r="R15">
-        <v>80.17692314476001</v>
+        <v>83.56438786446</v>
       </c>
       <c r="S15">
-        <v>0.0003047605592812162</v>
+        <v>0.0003710747412374689</v>
       </c>
       <c r="T15">
-        <v>0.0003047605592812162</v>
+        <v>0.0003710747412374688</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.9896660236551109</v>
+        <v>1.005336911182</v>
       </c>
       <c r="R16">
-        <v>8.906994212895999</v>
+        <v>9.048032200638</v>
       </c>
       <c r="S16">
-        <v>3.385638200328156E-05</v>
+        <v>4.017855324933192E-05</v>
       </c>
       <c r="T16">
-        <v>3.385638200328156E-05</v>
+        <v>4.017855324933191E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.5982033804817777</v>
+        <v>0.204299486272</v>
       </c>
       <c r="R17">
-        <v>5.383830424336</v>
+        <v>1.838695376448</v>
       </c>
       <c r="S17">
-        <v>2.04644816343654E-05</v>
+        <v>8.164882535089472E-06</v>
       </c>
       <c r="T17">
-        <v>2.04644816343654E-05</v>
+        <v>8.164882535089469E-06</v>
       </c>
     </row>
   </sheetData>
